--- a/data/trans_dic/Q23_R2-Edad-trans_dic.xlsx
+++ b/data/trans_dic/Q23_R2-Edad-trans_dic.xlsx
@@ -639,32 +639,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>36,74; 51,65</t>
+          <t>37,31; 51,28</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>38,69; 52,8</t>
+          <t>38,22; 52,35</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>36,66; 51,99</t>
+          <t>36,36; 50,29</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>47,68; 63,02</t>
+          <t>47,74; 63,85</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>38,82; 49,05</t>
+          <t>39,24; 48,79</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>45,2; 55,78</t>
+          <t>44,6; 55,28</t>
         </is>
       </c>
     </row>
@@ -719,32 +719,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>25,52; 34,64</t>
+          <t>25,38; 34,81</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>25,99; 35,35</t>
+          <t>26,01; 35,66</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>22,88; 33,72</t>
+          <t>23,07; 33,64</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>20,68; 30,77</t>
+          <t>20,97; 30,32</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>25,32; 32,56</t>
+          <t>25,61; 32,55</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>25,15; 31,77</t>
+          <t>25,09; 31,85</t>
         </is>
       </c>
     </row>
@@ -799,32 +799,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>23,53; 32,88</t>
+          <t>24,08; 33,35</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>26,33; 35,59</t>
+          <t>27,09; 35,74</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>20,99; 31,31</t>
+          <t>20,7; 30,57</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>22,49; 32,18</t>
+          <t>22,52; 32,05</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>23,94; 30,78</t>
+          <t>23,73; 30,62</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>26,13; 32,88</t>
+          <t>26,08; 32,5</t>
         </is>
       </c>
     </row>
@@ -879,32 +879,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>28,69; 40,44</t>
+          <t>29,43; 40,27</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>31,28; 41,19</t>
+          <t>31,61; 40,93</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>13,58; 24,54</t>
+          <t>13,82; 24,47</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>21,13; 32,17</t>
+          <t>20,96; 31,62</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>25,04; 33,06</t>
+          <t>24,8; 32,9</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>28,84; 35,69</t>
+          <t>28,37; 36,03</t>
         </is>
       </c>
     </row>
@@ -959,32 +959,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>37,6; 49,92</t>
+          <t>37,22; 49,66</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>33,82; 45,33</t>
+          <t>33,14; 45,75</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>5,12; 22,45</t>
+          <t>5,13; 23,63</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>7,18; 19,98</t>
+          <t>7,21; 19,98</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>30,87; 41,93</t>
+          <t>31,5; 42,13</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>27,41; 36,41</t>
+          <t>27,13; 36,44</t>
         </is>
       </c>
     </row>
@@ -1039,32 +1039,32 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>38,91; 50,45</t>
+          <t>39,58; 51,35</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>37,34; 48,31</t>
+          <t>37,23; 48,05</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>4,19; 33,02</t>
+          <t>4,14; 32,54</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>4,58; 28,32</t>
+          <t>2,62; 27,55</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>35,95; 48,04</t>
+          <t>36,83; 47,84</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>34,82; 44,9</t>
+          <t>35,0; 45,04</t>
         </is>
       </c>
     </row>
@@ -1119,32 +1119,32 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>33,59; 38,04</t>
+          <t>33,64; 38,21</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>34,43; 38,61</t>
+          <t>34,5; 38,7</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>24,43; 29,69</t>
+          <t>24,04; 29,91</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>25,69; 30,82</t>
+          <t>25,66; 30,92</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>30,92; 34,28</t>
+          <t>30,79; 34,48</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>31,73; 34,99</t>
+          <t>31,44; 35,12</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/Q23_R2-Edad-trans_dic.xlsx
+++ b/data/trans_dic/Q23_R2-Edad-trans_dic.xlsx
@@ -639,32 +639,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>37,31; 51,28</t>
+          <t>37,44; 51,49</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>38,22; 52,35</t>
+          <t>38,07; 53,11</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>36,36; 50,29</t>
+          <t>37,36; 51,89</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>47,74; 63,85</t>
+          <t>47,33; 63,22</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>39,24; 48,79</t>
+          <t>38,6; 48,61</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>44,6; 55,28</t>
+          <t>44,22; 55,37</t>
         </is>
       </c>
     </row>
@@ -719,32 +719,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>25,38; 34,81</t>
+          <t>25,55; 34,53</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>26,01; 35,66</t>
+          <t>26,3; 35,81</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>23,07; 33,64</t>
+          <t>23,0; 34,18</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>20,97; 30,32</t>
+          <t>21,12; 30,76</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>25,61; 32,55</t>
+          <t>25,69; 32,78</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>25,09; 31,85</t>
+          <t>25,03; 32,21</t>
         </is>
       </c>
     </row>
@@ -799,32 +799,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>24,08; 33,35</t>
+          <t>23,73; 32,74</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>27,09; 35,74</t>
+          <t>27,14; 36,0</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>20,7; 30,57</t>
+          <t>21,12; 31,41</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>22,52; 32,05</t>
+          <t>22,82; 32,35</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>23,73; 30,62</t>
+          <t>24,2; 30,7</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>26,08; 32,5</t>
+          <t>26,41; 33,08</t>
         </is>
       </c>
     </row>
@@ -879,32 +879,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>29,43; 40,27</t>
+          <t>28,88; 40,18</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>31,61; 40,93</t>
+          <t>31,44; 40,71</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>13,82; 24,47</t>
+          <t>13,68; 25,45</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>20,96; 31,62</t>
+          <t>20,84; 32,02</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>24,8; 32,9</t>
+          <t>24,61; 32,81</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>28,37; 36,03</t>
+          <t>28,12; 35,56</t>
         </is>
       </c>
     </row>
@@ -959,32 +959,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>37,22; 49,66</t>
+          <t>36,51; 49,41</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>33,14; 45,75</t>
+          <t>33,89; 45,32</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>5,13; 23,63</t>
+          <t>5,92; 25,7</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>7,21; 19,98</t>
+          <t>7,78; 20,13</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>31,5; 42,13</t>
+          <t>31,27; 42,23</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>27,13; 36,44</t>
+          <t>26,64; 36,31</t>
         </is>
       </c>
     </row>
@@ -1039,32 +1039,32 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>39,58; 51,35</t>
+          <t>39,51; 50,89</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>37,23; 48,05</t>
+          <t>37,41; 47,83</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>4,14; 32,54</t>
+          <t>4,22; 33,23</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>2,62; 27,55</t>
+          <t>4,52; 29,34</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>36,83; 47,84</t>
+          <t>37,22; 48,29</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>35,0; 45,04</t>
+          <t>34,86; 45,39</t>
         </is>
       </c>
     </row>
@@ -1119,32 +1119,32 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>33,64; 38,21</t>
+          <t>33,77; 38,18</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>34,5; 38,7</t>
+          <t>34,34; 38,68</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>24,04; 29,91</t>
+          <t>24,45; 30,05</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>25,66; 30,92</t>
+          <t>25,64; 30,75</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>30,79; 34,48</t>
+          <t>30,89; 34,29</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>31,44; 35,12</t>
+          <t>31,65; 35,22</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/Q23_R2-Edad-trans_dic.xlsx
+++ b/data/trans_dic/Q23_R2-Edad-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -639,32 +639,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>37,44; 51,49</t>
+          <t>36,74; 51,65</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>38,07; 53,11</t>
+          <t>38,69; 52,8</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>37,36; 51,89</t>
+          <t>36,66; 51,99</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>47,33; 63,22</t>
+          <t>47,68; 63,02</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>38,6; 48,61</t>
+          <t>38,82; 49,05</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>44,22; 55,37</t>
+          <t>45,2; 55,78</t>
         </is>
       </c>
     </row>
@@ -719,32 +719,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>25,55; 34,53</t>
+          <t>25,52; 34,64</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>26,3; 35,81</t>
+          <t>25,99; 35,35</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>23,0; 34,18</t>
+          <t>22,88; 33,72</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>21,12; 30,76</t>
+          <t>20,68; 30,77</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>25,69; 32,78</t>
+          <t>25,32; 32,56</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>25,03; 32,21</t>
+          <t>25,15; 31,77</t>
         </is>
       </c>
     </row>
@@ -799,32 +799,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>23,73; 32,74</t>
+          <t>23,53; 32,88</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>27,14; 36,0</t>
+          <t>26,33; 35,59</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>21,12; 31,41</t>
+          <t>20,99; 31,31</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>22,82; 32,35</t>
+          <t>22,49; 32,18</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>24,2; 30,7</t>
+          <t>23,94; 30,78</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>26,41; 33,08</t>
+          <t>26,13; 32,88</t>
         </is>
       </c>
     </row>
@@ -879,32 +879,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>28,88; 40,18</t>
+          <t>28,69; 40,44</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>31,44; 40,71</t>
+          <t>31,28; 41,19</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>13,68; 25,45</t>
+          <t>13,58; 24,54</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>20,84; 32,02</t>
+          <t>21,13; 32,17</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>24,61; 32,81</t>
+          <t>25,04; 33,06</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>28,12; 35,56</t>
+          <t>28,84; 35,69</t>
         </is>
       </c>
     </row>
@@ -959,32 +959,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>36,51; 49,41</t>
+          <t>37,6; 49,92</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>33,89; 45,32</t>
+          <t>33,82; 45,33</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>5,92; 25,7</t>
+          <t>5,12; 22,45</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>7,78; 20,13</t>
+          <t>7,18; 19,98</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>31,27; 42,23</t>
+          <t>30,87; 41,93</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>26,64; 36,31</t>
+          <t>27,41; 36,41</t>
         </is>
       </c>
     </row>
@@ -1039,32 +1039,32 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>39,51; 50,89</t>
+          <t>38,91; 50,45</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>37,41; 47,83</t>
+          <t>37,34; 48,31</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>4,22; 33,23</t>
+          <t>4,19; 33,02</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>4,52; 29,34</t>
+          <t>4,58; 28,32</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>37,22; 48,29</t>
+          <t>35,95; 48,04</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>34,86; 45,39</t>
+          <t>34,82; 44,9</t>
         </is>
       </c>
     </row>
@@ -1119,32 +1119,32 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>33,77; 38,18</t>
+          <t>33,59; 38,04</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>34,34; 38,68</t>
+          <t>34,43; 38,61</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>24,45; 30,05</t>
+          <t>24,43; 29,69</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>25,64; 30,75</t>
+          <t>25,69; 30,82</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>30,89; 34,29</t>
+          <t>30,92; 34,28</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>31,65; 35,22</t>
+          <t>31,73; 34,99</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/Q23_R2-Edad-trans_dic.xlsx
+++ b/data/trans_dic/Q23_R2-Edad-trans_dic.xlsx
@@ -37,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -63,6 +63,13 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
     <border>
@@ -497,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H18"/>
+  <dimension ref="A1:N20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -516,12 +523,18 @@
     <col width="14" customWidth="1" min="6" max="6"/>
     <col width="14" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que se encuentra en el primer cuartil de la edad de comienzo de consumo de tabaco</t>
+          <t>Población cuyo comienzo de consumo de tabaco fue antes de los 15 años</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -531,18 +544,24 @@
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
-      <c r="E1" s="3" t="inlineStr">
-        <is>
-          <t>Mujer</t>
-        </is>
-      </c>
+      <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
       <c r="G1" s="3" t="inlineStr">
         <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -559,22 +578,52 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>2007</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>2012</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>2007</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
         </is>
       </c>
     </row>
@@ -587,11 +636,17 @@
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="n"/>
       <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>16/24</t>
+          <t>16-24</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -611,22 +666,52 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
+          <t>60,35%</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>39,49%</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
           <t>43,82%</t>
         </is>
       </c>
-      <c r="F4" s="2" t="inlineStr">
+      <c r="H4" s="2" t="inlineStr">
         <is>
           <t>55,39%</t>
         </is>
       </c>
-      <c r="G4" s="2" t="inlineStr">
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>62,34%</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>33,75%</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
         <is>
           <t>44,05%</t>
         </is>
       </c>
-      <c r="H4" s="2" t="inlineStr">
+      <c r="L4" s="2" t="inlineStr">
         <is>
           <t>49,97%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>60,89%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>36,94%</t>
         </is>
       </c>
     </row>
@@ -649,29 +734,59 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
+          <t>45,32; 75,46</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>21,87; 57,64</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
           <t>36,66; 51,99</t>
         </is>
       </c>
-      <c r="F5" s="2" t="inlineStr">
+      <c r="H5" s="2" t="inlineStr">
         <is>
           <t>47,68; 63,02</t>
         </is>
       </c>
-      <c r="G5" s="2" t="inlineStr">
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>35,05; 85,79</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>19,98; 49,85</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
         <is>
           <t>38,82; 49,05</t>
         </is>
       </c>
-      <c r="H5" s="2" t="inlineStr">
+      <c r="L5" s="2" t="inlineStr">
         <is>
           <t>45,2; 55,78</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>47,05; 75,19</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>25,05; 50,57</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>25/34</t>
+          <t>25-34</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -691,22 +806,52 @@
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
+          <t>35,82%</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>28,91%</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
           <t>27,98%</t>
         </is>
       </c>
-      <c r="F6" s="2" t="inlineStr">
+      <c r="H6" s="2" t="inlineStr">
         <is>
           <t>25,6%</t>
         </is>
       </c>
-      <c r="G6" s="2" t="inlineStr">
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>59,69%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>25,58%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
         <is>
           <t>29,03%</t>
         </is>
       </c>
-      <c r="H6" s="2" t="inlineStr">
+      <c r="L6" s="2" t="inlineStr">
         <is>
           <t>28,38%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>41,81%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>27,36%</t>
         </is>
       </c>
     </row>
@@ -729,29 +874,59 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
+          <t>25,56; 49,67</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>21,03; 37,76</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
           <t>22,88; 33,72</t>
         </is>
       </c>
-      <c r="F7" s="2" t="inlineStr">
+      <c r="H7" s="2" t="inlineStr">
         <is>
           <t>20,68; 30,77</t>
         </is>
       </c>
-      <c r="G7" s="2" t="inlineStr">
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>37,24; 79,64</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>18,97; 33,92</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
         <is>
           <t>25,32; 32,56</t>
         </is>
       </c>
-      <c r="H7" s="2" t="inlineStr">
+      <c r="L7" s="2" t="inlineStr">
         <is>
           <t>25,15; 31,77</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>32,32; 52,94</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>21,84; 33,2</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>35/44</t>
+          <t>35-44</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -771,22 +946,52 @@
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
+          <t>44,47%</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>31,58%</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
           <t>25,89%</t>
         </is>
       </c>
-      <c r="F8" s="2" t="inlineStr">
+      <c r="H8" s="2" t="inlineStr">
         <is>
           <t>27,23%</t>
         </is>
       </c>
-      <c r="G8" s="2" t="inlineStr">
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>34,36%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>21,45%</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
         <is>
           <t>27,22%</t>
         </is>
       </c>
-      <c r="H8" s="2" t="inlineStr">
+      <c r="L8" s="2" t="inlineStr">
         <is>
           <t>29,47%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>41,29%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>26,55%</t>
         </is>
       </c>
     </row>
@@ -809,29 +1014,59 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
+          <t>28,75; 59,73</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>24,22; 38,83</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
           <t>20,99; 31,31</t>
         </is>
       </c>
-      <c r="F9" s="2" t="inlineStr">
+      <c r="H9" s="2" t="inlineStr">
         <is>
           <t>22,49; 32,18</t>
         </is>
       </c>
-      <c r="G9" s="2" t="inlineStr">
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>15,76; 58,81</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>16,86; 26,59</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
         <is>
           <t>23,94; 30,78</t>
         </is>
       </c>
-      <c r="H9" s="2" t="inlineStr">
+      <c r="L9" s="2" t="inlineStr">
         <is>
           <t>26,13; 32,88</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>28,38; 53,12</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>22,3; 30,85</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>45/54</t>
+          <t>45-54</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -851,22 +1086,52 @@
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
+          <t>73,82%</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>15,07%</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
           <t>18,77%</t>
         </is>
       </c>
-      <c r="F10" s="2" t="inlineStr">
+      <c r="H10" s="2" t="inlineStr">
         <is>
           <t>26,22%</t>
         </is>
       </c>
-      <c r="G10" s="2" t="inlineStr">
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>24,92%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>22,5%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
         <is>
           <t>28,6%</t>
         </is>
       </c>
-      <c r="H10" s="2" t="inlineStr">
+      <c r="L10" s="2" t="inlineStr">
         <is>
           <t>31,94%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>68,97%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>17,42%</t>
         </is>
       </c>
     </row>
@@ -889,29 +1154,59 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
+          <t>54,96; 87,16</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>4,45; 29,52</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
           <t>13,58; 24,54</t>
         </is>
       </c>
-      <c r="F11" s="2" t="inlineStr">
+      <c r="H11" s="2" t="inlineStr">
         <is>
           <t>21,13; 32,17</t>
         </is>
       </c>
-      <c r="G11" s="2" t="inlineStr">
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 100,0</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>18,47; 26,65</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
         <is>
           <t>25,04; 33,06</t>
         </is>
       </c>
-      <c r="H11" s="2" t="inlineStr">
+      <c r="L11" s="2" t="inlineStr">
         <is>
           <t>28,84; 35,69</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>52,06; 84,29</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>7,49; 26,62</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>55/64</t>
+          <t>55-64</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -931,22 +1226,52 @@
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
+          <t>32,51%</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>35,99%</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
           <t>12,53%</t>
         </is>
       </c>
-      <c r="F12" s="2" t="inlineStr">
+      <c r="H12" s="2" t="inlineStr">
         <is>
           <t>12,5%</t>
         </is>
       </c>
-      <c r="G12" s="2" t="inlineStr">
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>20,24%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>25,49%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
         <is>
           <t>36,69%</t>
         </is>
       </c>
-      <c r="H12" s="2" t="inlineStr">
+      <c r="L12" s="2" t="inlineStr">
         <is>
           <t>31,66%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>23,37%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>31,98%</t>
         </is>
       </c>
     </row>
@@ -969,29 +1294,59 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
+          <t>0,0; 100,0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>30,66; 40,98</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
           <t>5,12; 22,45</t>
         </is>
       </c>
-      <c r="F13" s="2" t="inlineStr">
+      <c r="H13" s="2" t="inlineStr">
         <is>
           <t>7,18; 19,98</t>
         </is>
       </c>
-      <c r="G13" s="2" t="inlineStr">
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 67,92</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>21,35; 30,63</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
         <is>
           <t>30,87; 41,93</t>
         </is>
       </c>
-      <c r="H13" s="2" t="inlineStr">
+      <c r="L13" s="2" t="inlineStr">
         <is>
           <t>27,41; 36,41</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 60,42</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>28,17; 35,7</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>65 y más</t>
+          <t>65-74</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1001,32 +1356,62 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>45,4%</t>
+          <t>40,05%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>42,76%</t>
+          <t>40,56%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>15,46%</t>
+          <t>59,27%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>11,79%</t>
+          <t>38,41%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>42,17%</t>
+          <t>4,96%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>39,82%</t>
+          <t>16,08%</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>22,76%</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>36,15%</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>37,64%</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>49,11%</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>33,83%</t>
         </is>
       </c>
     </row>
@@ -1039,39 +1424,69 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>38,91; 50,45</t>
+          <t>32,73; 48,17</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>37,34; 48,31</t>
+          <t>33,4; 47,75</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>4,19; 33,02</t>
+          <t>18,29; 100,0</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>4,58; 28,32</t>
+          <t>32,59; 43,48</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>35,95; 48,04</t>
+          <t>0,0; 25,21</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>34,82; 44,9</t>
+          <t>5,94; 37,55</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>0; 77,15</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>16,71; 29,25</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>28,86; 43,26</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>31,29; 44,82</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>15,43; 83,82</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>29,83; 38,46</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>75 o más</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1081,32 +1496,62 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>35,85%</t>
+          <t>51,86%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>36,49%</t>
+          <t>45,65%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>27,03%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>28,24%</t>
+          <t>43,33%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>32,63%</t>
+          <t>29,16%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>33,31%</t>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>14,9%</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>49,5%</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>42,88%</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>39,27%</t>
         </is>
       </c>
     </row>
@@ -1119,54 +1564,225 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
+          <t>43,71; 60,98</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>37,8; 54,44</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>36,22; 50,93</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>9,21; 65,87</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>0; 18,74</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>5,44; 28,24</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>41,66; 59,06</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>35,55; 50,66</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>33,48; 45,66</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>35,85%</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>36,49%</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>50,31%</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>29,23%</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>27,03%</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>28,24%</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>45,63%</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>24,14%</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>32,63%</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>33,31%</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>49,07%</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>27,35%</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n"/>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
           <t>33,59; 38,04</t>
         </is>
       </c>
-      <c r="D17" s="2" t="inlineStr">
+      <c r="D19" s="2" t="inlineStr">
         <is>
           <t>34,43; 38,61</t>
         </is>
       </c>
-      <c r="E17" s="2" t="inlineStr">
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>43,33; 57,1</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>17,39; 35,26</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
         <is>
           <t>24,43; 29,69</t>
         </is>
       </c>
-      <c r="F17" s="2" t="inlineStr">
+      <c r="H19" s="2" t="inlineStr">
         <is>
           <t>25,69; 30,82</t>
         </is>
       </c>
-      <c r="G17" s="2" t="inlineStr">
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>33,85; 57,03</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>21,78; 26,69</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
         <is>
           <t>30,92; 34,28</t>
         </is>
       </c>
-      <c r="H17" s="2" t="inlineStr">
+      <c r="L19" s="2" t="inlineStr">
         <is>
           <t>31,73; 34,99</t>
         </is>
       </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>42,75; 54,76</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>19,6; 30,69</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A8:A9"/>
-    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A10:A11"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
     <mergeCell ref="A16:A17"/>
+    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A18:A19"/>
     <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/trans_dic/Q23_R2-Edad-trans_dic.xlsx
+++ b/data/trans_dic/Q23_R2-Edad-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -666,7 +667,7 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>60,35%</t>
+          <t>42,08%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
@@ -686,7 +687,7 @@
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>62,34%</t>
+          <t>48,55%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
@@ -706,7 +707,7 @@
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>60,89%</t>
+          <t>44,99%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
@@ -724,62 +725,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>36,74; 51,65</t>
+          <t>37,11; 51,57</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>38,69; 52,8</t>
+          <t>37,95; 52,2</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>45,32; 75,46</t>
+          <t>34,42; 50,49</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>21,87; 57,64</t>
+          <t>19,58; 56,77</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>36,66; 51,99</t>
+          <t>37,11; 51,28</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>47,68; 63,02</t>
+          <t>46,96; 62,61</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>35,05; 85,79</t>
+          <t>40,05; 57,57</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>19,98; 49,85</t>
+          <t>19,92; 49,26</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>38,82; 49,05</t>
+          <t>38,58; 48,9</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>45,2; 55,78</t>
+          <t>44,46; 55,37</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>47,05; 75,19</t>
+          <t>39,08; 51,07</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>25,05; 50,57</t>
+          <t>25,03; 50,03</t>
         </is>
       </c>
     </row>
@@ -806,7 +807,7 @@
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>35,82%</t>
+          <t>31,21%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
@@ -826,7 +827,7 @@
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>59,69%</t>
+          <t>31,87%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
@@ -846,7 +847,7 @@
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>41,81%</t>
+          <t>31,52%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
@@ -864,62 +865,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>25,52; 34,64</t>
+          <t>24,98; 34,48</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>25,99; 35,35</t>
+          <t>26,08; 35,33</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>25,56; 49,67</t>
+          <t>26,02; 36,78</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>21,03; 37,76</t>
+          <t>20,6; 37,89</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>22,88; 33,72</t>
+          <t>22,72; 33,68</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>20,68; 30,77</t>
+          <t>20,94; 30,85</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>37,24; 79,64</t>
+          <t>26,61; 37,65</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>18,97; 33,92</t>
+          <t>17,79; 32,64</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>25,32; 32,56</t>
+          <t>25,7; 32,67</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>25,15; 31,77</t>
+          <t>25,36; 32,17</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>32,32; 52,94</t>
+          <t>27,65; 35,01</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>21,84; 33,2</t>
+          <t>22,14; 33,49</t>
         </is>
       </c>
     </row>
@@ -946,7 +947,7 @@
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>44,47%</t>
+          <t>30,6%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
@@ -966,7 +967,7 @@
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>34,36%</t>
+          <t>26,0%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
@@ -986,7 +987,7 @@
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>41,29%</t>
+          <t>28,42%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
@@ -1004,62 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>23,53; 32,88</t>
+          <t>23,2; 33,0</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>26,33; 35,59</t>
+          <t>26,56; 35,72</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>28,75; 59,73</t>
+          <t>25,4; 36,14</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>24,22; 38,83</t>
+          <t>24,85; 39,33</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>20,99; 31,31</t>
+          <t>20,93; 31,37</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>22,49; 32,18</t>
+          <t>22,43; 32,23</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>15,76; 58,81</t>
+          <t>20,76; 30,94</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>16,86; 26,59</t>
+          <t>16,83; 26,69</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>23,94; 30,78</t>
+          <t>23,97; 30,91</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>26,13; 32,88</t>
+          <t>26,45; 33,25</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>28,38; 53,12</t>
+          <t>24,8; 32,07</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>22,3; 30,85</t>
+          <t>22,58; 31,16</t>
         </is>
       </c>
     </row>
@@ -1086,7 +1087,7 @@
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>73,82%</t>
+          <t>35,06%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
@@ -1106,7 +1107,7 @@
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>24,92%</t>
+          <t>19,28%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
@@ -1126,7 +1127,7 @@
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>68,97%</t>
+          <t>27,97%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
@@ -1144,62 +1145,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>28,69; 40,44</t>
+          <t>29,03; 40,08</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>31,28; 41,19</t>
+          <t>31,37; 41,19</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>54,96; 87,16</t>
+          <t>29,84; 39,92</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>4,45; 29,52</t>
+          <t>4,53; 30,02</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>13,58; 24,54</t>
+          <t>13,46; 24,76</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>21,13; 32,17</t>
+          <t>21,29; 31,82</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 100,0</t>
+          <t>14,85; 24,48</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>18,47; 26,65</t>
+          <t>18,62; 27,07</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>25,04; 33,06</t>
+          <t>24,46; 32,85</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>28,84; 35,69</t>
+          <t>28,9; 35,88</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>52,06; 84,29</t>
+          <t>24,74; 31,67</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>7,49; 26,62</t>
+          <t>6,88; 26,25</t>
         </is>
       </c>
     </row>
@@ -1226,7 +1227,7 @@
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>32,51%</t>
+          <t>39,05%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
@@ -1246,7 +1247,7 @@
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>20,24%</t>
+          <t>21,16%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
@@ -1266,7 +1267,7 @@
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>23,37%</t>
+          <t>32,18%</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
@@ -1284,62 +1285,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>37,6; 49,92</t>
+          <t>36,16; 49,96</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>33,82; 45,33</t>
+          <t>33,43; 45,64</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 100,0</t>
+          <t>32,95; 45,83</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>30,66; 40,98</t>
+          <t>30,98; 41,31</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>5,12; 22,45</t>
+          <t>5,04; 23,44</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>7,18; 19,98</t>
+          <t>6,59; 18,85</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 67,92</t>
+          <t>14,89; 28,62</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>21,35; 30,63</t>
+          <t>20,98; 29,98</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>30,87; 41,93</t>
+          <t>31,04; 42,26</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>27,41; 36,41</t>
+          <t>26,61; 36,51</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 60,42</t>
+          <t>27,53; 36,89</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>28,17; 35,7</t>
+          <t>28,89; 35,83</t>
         </is>
       </c>
     </row>
@@ -1366,7 +1367,7 @@
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>59,27%</t>
+          <t>42,69%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
@@ -1386,7 +1387,7 @@
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>7,31%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
@@ -1406,7 +1407,7 @@
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>49,11%</t>
+          <t>34,39%</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
@@ -1424,62 +1425,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>32,73; 48,17</t>
+          <t>32,51; 47,71</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>33,4; 47,75</t>
+          <t>33,57; 47,92</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>18,29; 100,0</t>
+          <t>35,19; 50,39</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>32,59; 43,48</t>
+          <t>32,87; 43,7</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 25,21</t>
+          <t>0,0; 20,75</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>5,94; 37,55</t>
+          <t>3,6; 37,76</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>0; 77,15</t>
+          <t>1,83; 16,98</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>16,71; 29,25</t>
+          <t>16,69; 30,1</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>28,86; 43,26</t>
+          <t>29,44; 44,25</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>31,29; 44,82</t>
+          <t>30,95; 44,69</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>15,43; 83,82</t>
+          <t>28,59; 41,37</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>29,83; 38,46</t>
+          <t>29,8; 38,37</t>
         </is>
       </c>
     </row>
@@ -1506,7 +1507,7 @@
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>44,26%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
@@ -1526,7 +1527,7 @@
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
@@ -1546,7 +1547,7 @@
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>40,81%</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
@@ -1564,27 +1565,27 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>43,71; 60,98</t>
+          <t>43,26; 60,94</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>37,8; 54,44</t>
+          <t>37,71; 53,79</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>36,58; 51,89</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>36,22; 50,93</t>
+          <t>35,9; 50,82</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>9,21; 65,87</t>
+          <t>0,0; 58,84</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
@@ -1594,32 +1595,32 @@
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0; 20,75</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>5,44; 28,24</t>
+          <t>5,26; 29,82</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>41,66; 59,06</t>
+          <t>40,71; 57,87</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>35,55; 50,66</t>
+          <t>35,14; 50,24</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>33,55; 48,46</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>33,48; 45,66</t>
+          <t>33,26; 45,84</t>
         </is>
       </c>
     </row>
@@ -1646,7 +1647,7 @@
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>50,31%</t>
+          <t>36,25%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
@@ -1666,7 +1667,7 @@
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>45,63%</t>
+          <t>25,98%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
@@ -1686,7 +1687,7 @@
       </c>
       <c r="M18" s="2" t="inlineStr">
         <is>
-          <t>49,07%</t>
+          <t>32,01%</t>
         </is>
       </c>
       <c r="N18" s="2" t="inlineStr">
@@ -1704,62 +1705,62 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>33,59; 38,04</t>
+          <t>33,5; 38,04</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>34,43; 38,61</t>
+          <t>34,25; 38,58</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>43,33; 57,1</t>
+          <t>33,91; 38,46</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>17,39; 35,26</t>
+          <t>17,86; 34,95</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>24,43; 29,69</t>
+          <t>24,42; 30,04</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>25,69; 30,82</t>
+          <t>25,76; 30,76</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>33,85; 57,03</t>
+          <t>23,54; 28,6</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>21,78; 26,69</t>
+          <t>21,81; 26,61</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>30,92; 34,28</t>
+          <t>30,78; 34,39</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>31,73; 34,99</t>
+          <t>31,55; 34,78</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>42,75; 54,76</t>
+          <t>29,99; 33,7</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>19,6; 30,69</t>
+          <t>19,82; 30,86</t>
         </is>
       </c>
     </row>
@@ -1787,4 +1788,1839 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población cuyo comienzo de consumo de tabaco fue antes de los 15 años</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>16-24</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>85</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>57</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>85</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>165</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>165</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>117</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>86067</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>81710</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>62494</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>38550</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>75609</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>89173</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>59001</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>26355</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>161677</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>170883</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>121495</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>64905</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>72182; 100320</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>68681; 94469</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>51112; 74980</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>19114; 55423</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>64023; 88476</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>75600; 100793</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>48674; 69961</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>15553; 38457</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>141619; 179497</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>152057; 189363</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>105540; 137910</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>43984; 87905</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>25-34</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>118</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>118</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>89</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>74</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>79</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>86</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>192</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>197</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>175</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>73</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>118270</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>125173</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>94775</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>48471</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>76792</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>83748</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>83712</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>37217</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>195061</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>208920</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>178487</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>85688</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>99276; 137022</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>106672; 144508</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>79010; 111676</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>34535; 63539</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>62334; 92410</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>68485; 100927</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>69901; 98906</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>25877; 47486</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>172673; 219519</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>186662; 236782</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>156612; 198282</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>69333; 104867</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>35-44</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>104</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>130</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>97</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>59</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>93</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>58</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>179</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>223</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>175</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>117</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>107392</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>133910</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>102905</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>59727</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>77286</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>99151</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>78722</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>40007</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>184678</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>233061</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>181627</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>99734</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>88163; 125404</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>113359; 152456</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>85411; 121504</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>47001; 74382</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>62465; 93619</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>81657; 117332</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>62855; 93696</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>31381; 49773</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>162646; 209703</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>209210; 262961</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>158515; 204948</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>84830; 117051</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>104</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>146</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>122</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>83</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>69</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>57</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>88</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>140</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>215</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>179</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>171</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>111961</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>160570</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>135130</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>80135</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>36210</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>85057</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>60755</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>55453</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>148172</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>245627</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>195885</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>135588</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>94427; 130342</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>139489; 183136</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>114990; 153858</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>24098; 159679</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>25961; 47764</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>69046; 103201</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>46785; 77113</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>45880; 66698</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>126749; 170191</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>222248; 275905</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>173281; 221845</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>53530; 204295</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>55-64</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>97</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>106</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>136</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>88</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>104</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>127</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>224</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>97936</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>114536</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>109329</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>118469</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>7398</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>14676</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>36992</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>51959</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>105334</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>129212</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>146321</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>170428</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>82473; 113941</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>97179; 132701</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>92255; 128298</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>101971; 135970</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>2977; 13833</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>7739; 22128</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>26032; 50030</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>42761; 61099</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>89096; 121318</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>108601; 149016</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>125189; 167777</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>153959; 190939</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>65-74</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>61</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>82</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>77</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>125</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>62</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>86</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>81</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>167</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>57899</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>85962</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>78781</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>84706</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>896</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>4619</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>4135</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>20749</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>58795</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>90581</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>82917</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>105455</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>46998; 68976</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>71141; 101559</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>64944; 92987</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>72502; 96376</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>0; 3754</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>1033; 10849</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>1034; 9600</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>15211; 27438</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>47884; 71980</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>74475; 107540</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>68939; 99738</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>92889; 119613</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>75 o más</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>63</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>67</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>68</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>91</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>66</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>67</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>68</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>97</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>62154</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>73630</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>57787</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>57911</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>4044</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>3320</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>66198</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>73630</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>57787</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>61231</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>51848; 73036</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>60823; 86759</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>47768; 67746</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>47973; 67910</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>0; 8160</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>0; 1955</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>0; 2292</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>1173; 6643</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>54438; 77386</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>60348; 86282</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>47509; 68625</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>51851; 71478</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C25" s="2" t="inlineStr">
+        <is>
+          <t>632</t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="inlineStr">
+        <is>
+          <t>729</t>
+        </is>
+      </c>
+      <c r="E25" s="2" t="inlineStr">
+        <is>
+          <t>606</t>
+        </is>
+      </c>
+      <c r="F25" s="2" t="inlineStr">
+        <is>
+          <t>545</t>
+        </is>
+      </c>
+      <c r="G25" s="2" t="inlineStr">
+        <is>
+          <t>276</t>
+        </is>
+      </c>
+      <c r="H25" s="2" t="inlineStr">
+        <is>
+          <t>344</t>
+        </is>
+      </c>
+      <c r="I25" s="2" t="inlineStr">
+        <is>
+          <t>316</t>
+        </is>
+      </c>
+      <c r="J25" s="2" t="inlineStr">
+        <is>
+          <t>332</t>
+        </is>
+      </c>
+      <c r="K25" s="2" t="inlineStr">
+        <is>
+          <t>908</t>
+        </is>
+      </c>
+      <c r="L25" s="2" t="inlineStr">
+        <is>
+          <t>1073</t>
+        </is>
+      </c>
+      <c r="M25" s="2" t="inlineStr">
+        <is>
+          <t>922</t>
+        </is>
+      </c>
+      <c r="N25" s="2" t="inlineStr">
+        <is>
+          <t>877</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n"/>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C26" s="2" t="inlineStr">
+        <is>
+          <t>641678</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="inlineStr">
+        <is>
+          <t>775491</t>
+        </is>
+      </c>
+      <c r="E26" s="2" t="inlineStr">
+        <is>
+          <t>641201</t>
+        </is>
+      </c>
+      <c r="F26" s="2" t="inlineStr">
+        <is>
+          <t>487969</t>
+        </is>
+      </c>
+      <c r="G26" s="2" t="inlineStr">
+        <is>
+          <t>278236</t>
+        </is>
+      </c>
+      <c r="H26" s="2" t="inlineStr">
+        <is>
+          <t>376424</t>
+        </is>
+      </c>
+      <c r="I26" s="2" t="inlineStr">
+        <is>
+          <t>323318</t>
+        </is>
+      </c>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
+          <t>235060</t>
+        </is>
+      </c>
+      <c r="K26" s="2" t="inlineStr">
+        <is>
+          <t>919915</t>
+        </is>
+      </c>
+      <c r="L26" s="2" t="inlineStr">
+        <is>
+          <t>1151915</t>
+        </is>
+      </c>
+      <c r="M26" s="2" t="inlineStr">
+        <is>
+          <t>964519</t>
+        </is>
+      </c>
+      <c r="N26" s="2" t="inlineStr">
+        <is>
+          <t>723029</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C27" s="2" t="inlineStr">
+        <is>
+          <t>599485; 680836</t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="inlineStr">
+        <is>
+          <t>727952; 820042</t>
+        </is>
+      </c>
+      <c r="E27" s="2" t="inlineStr">
+        <is>
+          <t>599806; 680315</t>
+        </is>
+      </c>
+      <c r="F27" s="2" t="inlineStr">
+        <is>
+          <t>298145; 583493</t>
+        </is>
+      </c>
+      <c r="G27" s="2" t="inlineStr">
+        <is>
+          <t>251338; 309212</t>
+        </is>
+      </c>
+      <c r="H27" s="2" t="inlineStr">
+        <is>
+          <t>343406; 410029</t>
+        </is>
+      </c>
+      <c r="I27" s="2" t="inlineStr">
+        <is>
+          <t>292931; 355893</t>
+        </is>
+      </c>
+      <c r="J27" s="2" t="inlineStr">
+        <is>
+          <t>212404; 259085</t>
+        </is>
+      </c>
+      <c r="K27" s="2" t="inlineStr">
+        <is>
+          <t>867773; 969376</t>
+        </is>
+      </c>
+      <c r="L27" s="2" t="inlineStr">
+        <is>
+          <t>1091008; 1202667</t>
+        </is>
+      </c>
+      <c r="M27" s="2" t="inlineStr">
+        <is>
+          <t>903662; 1015425</t>
+        </is>
+      </c>
+      <c r="N27" s="2" t="inlineStr">
+        <is>
+          <t>523840; 815602</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="12">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>